--- a/EvoTax.1099/wwwroot/Templates/Form1099_OID_Template.xlsx
+++ b/EvoTax.1099/wwwroot/Templates/Form1099_OID_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://matthewjohnmcnally-my.sharepoint.com/personal/obaig_evolvedtax_com/Documents/Desktop/Excel sample/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\Code Repos\EvoTaxes\EvoTax.1099\wwwroot\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_5E3528404849C4CCF8CBC6C84023F100F51099BC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CE3D5E6B-DC22-49F7-ACA2-DC3F8F175B31}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6B9B6B-0A01-4A2A-B6C5-E8CB3A6B29EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,29 +21,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="170">
   <si>
     <t>Rcp TIN</t>
   </si>
   <si>
-    <t>Last Name/Company</t>
-  </si>
-  <si>
     <t>First Name</t>
   </si>
   <si>
-    <t>Name Line 2</t>
-  </si>
-  <si>
     <t>Address Type</t>
   </si>
   <si>
-    <t>Address Deliv/Street</t>
-  </si>
-  <si>
-    <t>Address Apt/Suite</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
@@ -525,6 +513,24 @@
   </si>
   <si>
     <t>Is Corrected</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Address Line 1</t>
+  </si>
+  <si>
+    <t>Address Line 2</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1151,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1160,6 +1166,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="22" fillId="35" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -1190,7 +1197,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
@@ -1513,10 +1520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH13"/>
+  <dimension ref="A1:AJ13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2:AH13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1526,811 +1533,818 @@
     <col min="3" max="3" width="19.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7265625" style="7" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="52.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.453125" customWidth="1"/>
-    <col min="30" max="30" width="14" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12" customWidth="1"/>
-    <col min="33" max="33" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.54296875" customWidth="1"/>
+    <col min="12" max="12" width="10.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.453125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="23" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="52.54296875" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.453125" customWidth="1"/>
+    <col min="32" max="32" width="14" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="12" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12" customWidth="1"/>
+    <col min="35" max="35" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="J1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="K1" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="9" t="s">
+      <c r="M1" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="N1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="O1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="P1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="Q1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="S1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AF1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="AI1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AJ1" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>162</v>
+      </c>
+      <c r="R2">
+        <v>1000</v>
+      </c>
+      <c r="X2" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA2">
+        <v>659.56</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="7">
+        <v>10932</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>162</v>
+      </c>
+      <c r="R3">
+        <v>1000</v>
+      </c>
+      <c r="V3">
+        <v>659.12</v>
+      </c>
+      <c r="X3" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB3">
+        <v>500</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD3">
+        <v>65665465</v>
+      </c>
+      <c r="AE3">
+        <v>65.319999999999993</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="7">
+        <v>58474</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P4" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>162</v>
+      </c>
+      <c r="R4">
+        <v>25000</v>
+      </c>
+      <c r="S4">
+        <v>7000</v>
+      </c>
+      <c r="T4">
+        <v>14000</v>
+      </c>
+      <c r="U4">
+        <v>1000.01</v>
+      </c>
+      <c r="X4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y4">
+        <v>6900</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I5" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH1" s="22" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>33</v>
-      </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" s="7" t="s">
+      <c r="N5" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>162</v>
+      </c>
+      <c r="R5">
+        <v>20000</v>
+      </c>
+      <c r="S5">
+        <v>10000</v>
+      </c>
+      <c r="T5">
+        <v>10000</v>
+      </c>
+      <c r="U5">
+        <v>1000</v>
+      </c>
+      <c r="W5">
+        <v>659.22</v>
+      </c>
+      <c r="X5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y5">
+        <v>50000</v>
+      </c>
+      <c r="AB5">
+        <v>43.55</v>
+      </c>
+      <c r="AF5" t="s">
         <v>35</v>
       </c>
-      <c r="L2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" t="s">
-        <v>165</v>
-      </c>
-      <c r="O2" t="s">
-        <v>166</v>
-      </c>
-      <c r="P2">
-        <v>1000</v>
-      </c>
-      <c r="V2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y2">
-        <v>659.56</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>46</v>
-      </c>
-      <c r="J3" s="7">
-        <v>10932</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="N3" t="s">
-        <v>165</v>
-      </c>
-      <c r="O3" t="s">
-        <v>166</v>
-      </c>
-      <c r="P3">
-        <v>1000</v>
-      </c>
-      <c r="T3">
-        <v>659.12</v>
-      </c>
-      <c r="V3" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z3">
-        <v>500</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="AJ5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L6" s="7">
+        <v>85082</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>162</v>
+      </c>
+      <c r="R6">
+        <v>2000</v>
+      </c>
+      <c r="U6">
+        <v>100.02</v>
+      </c>
+      <c r="X6" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z6">
+        <v>68900</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>162</v>
+      </c>
+      <c r="R7">
+        <v>350</v>
+      </c>
+      <c r="V7">
+        <v>25.32</v>
+      </c>
+      <c r="X7" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA7">
+        <v>999.36</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="7">
+        <v>48466</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>162</v>
+      </c>
+      <c r="R8">
+        <v>2000</v>
+      </c>
+      <c r="V8">
+        <v>65.22</v>
+      </c>
+      <c r="X8" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I9" t="s">
+        <v>92</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="N9" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P9" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>162</v>
+      </c>
+      <c r="R9">
+        <v>999.99</v>
+      </c>
+      <c r="W9">
+        <v>77.23</v>
+      </c>
+      <c r="X9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z9">
+        <v>599.99</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H10" t="s">
+        <v>101</v>
+      </c>
+      <c r="I10" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" s="7">
+        <v>90402</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="O10" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>162</v>
+      </c>
+      <c r="R10">
+        <v>25000</v>
+      </c>
+      <c r="S10">
+        <v>1999.99</v>
+      </c>
+      <c r="T10">
+        <v>3499.99</v>
+      </c>
+      <c r="U10">
+        <v>1200.99</v>
+      </c>
+      <c r="V10">
+        <v>300.18</v>
+      </c>
+      <c r="X10" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y10">
+        <v>1599.99</v>
+      </c>
+      <c r="AA10">
+        <v>32.01</v>
+      </c>
+      <c r="AB10">
+        <v>333.26</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG10" t="s">
         <v>107</v>
       </c>
-      <c r="AB3">
-        <v>65665465</v>
-      </c>
-      <c r="AC3">
-        <v>65.319999999999993</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" s="7">
-        <v>58474</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="N4" t="s">
-        <v>165</v>
-      </c>
-      <c r="O4" t="s">
-        <v>166</v>
-      </c>
-      <c r="P4">
-        <v>25000</v>
-      </c>
-      <c r="Q4">
-        <v>7000</v>
-      </c>
-      <c r="R4">
-        <v>14000</v>
-      </c>
-      <c r="S4">
+      <c r="AI10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="O11" t="s">
+        <v>117</v>
+      </c>
+      <c r="P11" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>162</v>
+      </c>
+      <c r="R11">
+        <v>5650</v>
+      </c>
+      <c r="U11">
+        <v>211.22</v>
+      </c>
+      <c r="X11" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z11">
+        <v>500.01</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>122</v>
+      </c>
+      <c r="I12" t="s">
+        <v>123</v>
+      </c>
+      <c r="J12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N12" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P12" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>162</v>
+      </c>
+      <c r="R12">
+        <v>2000.01</v>
+      </c>
+      <c r="X12" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>131</v>
+      </c>
+      <c r="I13" t="s">
+        <v>132</v>
+      </c>
+      <c r="J13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" s="7">
+        <v>97404</v>
+      </c>
+      <c r="N13" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>162</v>
+      </c>
+      <c r="R13">
+        <v>15000</v>
+      </c>
+      <c r="S13">
         <v>1000.01</v>
       </c>
-      <c r="V4" t="s">
-        <v>57</v>
-      </c>
-      <c r="W4">
-        <v>6900</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
-      <c r="F5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="T13">
+        <v>2500.0100000000002</v>
+      </c>
+      <c r="U13">
+        <v>487.76</v>
+      </c>
+      <c r="W13">
+        <v>98.66</v>
+      </c>
+      <c r="X13" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y13">
+        <v>1500.01</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>161</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="N5" t="s">
-        <v>165</v>
-      </c>
-      <c r="O5" t="s">
-        <v>166</v>
-      </c>
-      <c r="P5">
-        <v>20000</v>
-      </c>
-      <c r="Q5">
-        <v>10000</v>
-      </c>
-      <c r="R5">
-        <v>10000</v>
-      </c>
-      <c r="S5">
-        <v>1000</v>
-      </c>
-      <c r="U5">
-        <v>659.22</v>
-      </c>
-      <c r="V5" t="s">
-        <v>66</v>
-      </c>
-      <c r="W5">
-        <v>50000</v>
-      </c>
-      <c r="Z5">
-        <v>43.55</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-      <c r="C6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" t="s">
-        <v>71</v>
-      </c>
-      <c r="I6" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="7">
-        <v>85082</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="N6" t="s">
-        <v>165</v>
-      </c>
-      <c r="O6" t="s">
-        <v>166</v>
-      </c>
-      <c r="P6">
-        <v>2000</v>
-      </c>
-      <c r="S6">
-        <v>100.02</v>
-      </c>
-      <c r="V6" t="s">
-        <v>74</v>
-      </c>
-      <c r="X6">
-        <v>68900</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" t="s">
-        <v>79</v>
-      </c>
-      <c r="I7" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="N7" t="s">
-        <v>165</v>
-      </c>
-      <c r="O7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P7">
-        <v>350</v>
-      </c>
-      <c r="T7">
-        <v>25.32</v>
-      </c>
-      <c r="V7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y7">
-        <v>999.36</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8" s="7">
-        <v>48466</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="N8" t="s">
-        <v>165</v>
-      </c>
-      <c r="O8" t="s">
-        <v>166</v>
-      </c>
-      <c r="P8">
-        <v>2000</v>
-      </c>
-      <c r="T8">
-        <v>65.22</v>
-      </c>
-      <c r="V8" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B9" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" t="s">
-        <v>93</v>
-      </c>
-      <c r="F9" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H9" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" t="s">
-        <v>97</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="N9" t="s">
-        <v>165</v>
-      </c>
-      <c r="O9" t="s">
-        <v>166</v>
-      </c>
-      <c r="P9">
-        <v>999.99</v>
-      </c>
-      <c r="U9">
-        <v>77.23</v>
-      </c>
-      <c r="V9" t="s">
-        <v>100</v>
-      </c>
-      <c r="X9">
-        <v>599.99</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" t="s">
-        <v>103</v>
-      </c>
-      <c r="F10" t="s">
-        <v>104</v>
-      </c>
-      <c r="G10" t="s">
-        <v>105</v>
-      </c>
-      <c r="H10" t="s">
-        <v>106</v>
-      </c>
-      <c r="I10" t="s">
-        <v>107</v>
-      </c>
-      <c r="J10" s="7">
-        <v>90402</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M10" t="s">
-        <v>109</v>
-      </c>
-      <c r="N10" t="s">
-        <v>165</v>
-      </c>
-      <c r="O10" t="s">
-        <v>166</v>
-      </c>
-      <c r="P10">
-        <v>25000</v>
-      </c>
-      <c r="Q10">
-        <v>1999.99</v>
-      </c>
-      <c r="R10">
-        <v>3499.99</v>
-      </c>
-      <c r="S10">
-        <v>1200.99</v>
-      </c>
-      <c r="T10">
-        <v>300.18</v>
-      </c>
-      <c r="V10" t="s">
-        <v>110</v>
-      </c>
-      <c r="W10">
-        <v>1599.99</v>
-      </c>
-      <c r="Y10">
-        <v>32.01</v>
-      </c>
-      <c r="Z10">
-        <v>333.26</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="B11" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" t="s">
-        <v>115</v>
-      </c>
-      <c r="D11" t="s">
-        <v>116</v>
-      </c>
-      <c r="F11" t="s">
-        <v>117</v>
-      </c>
-      <c r="H11" t="s">
-        <v>118</v>
-      </c>
-      <c r="I11" t="s">
-        <v>107</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M11" t="s">
-        <v>121</v>
-      </c>
-      <c r="N11" t="s">
-        <v>165</v>
-      </c>
-      <c r="O11" t="s">
-        <v>166</v>
-      </c>
-      <c r="P11">
-        <v>5650</v>
-      </c>
-      <c r="S11">
-        <v>211.22</v>
-      </c>
-      <c r="V11" t="s">
-        <v>122</v>
-      </c>
-      <c r="X11">
-        <v>500.01</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" t="s">
-        <v>126</v>
-      </c>
-      <c r="H12" t="s">
-        <v>127</v>
-      </c>
-      <c r="I12" t="s">
-        <v>128</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="N12" t="s">
-        <v>165</v>
-      </c>
-      <c r="O12" t="s">
-        <v>166</v>
-      </c>
-      <c r="P12">
-        <v>2000.01</v>
-      </c>
-      <c r="V12" t="s">
-        <v>131</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F13" t="s">
-        <v>135</v>
-      </c>
-      <c r="H13" t="s">
-        <v>136</v>
-      </c>
-      <c r="I13" t="s">
-        <v>137</v>
-      </c>
-      <c r="J13" s="7">
-        <v>97404</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="O13" t="s">
-        <v>166</v>
-      </c>
-      <c r="P13">
-        <v>15000</v>
-      </c>
-      <c r="Q13">
-        <v>1000.01</v>
-      </c>
-      <c r="R13">
-        <v>2500.0100000000002</v>
-      </c>
-      <c r="S13">
-        <v>487.76</v>
-      </c>
-      <c r="U13">
-        <v>98.66</v>
-      </c>
-      <c r="V13" t="s">
-        <v>139</v>
-      </c>
-      <c r="W13">
-        <v>1500.01</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1:O1048576 AH1:AH1048576" xr:uid="{98221E41-9368-4D7D-8521-06A496EA4CA2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:Q1048576 AJ1:AJ1048576" xr:uid="{98221E41-9368-4D7D-8521-06A496EA4CA2}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2352,198 +2366,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="4" t="s">
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="5" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="15" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="18" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="5" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="16" t="s">
+    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="5" t="s">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="5" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="14" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" s="19" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="12"/>
+      <c r="A15" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="14">
